--- a/code/vocab_csv/eu-gdpr.xlsx
+++ b/code/vocab_csv/eu-gdpr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="800">
   <si>
     <t>Term</t>
   </si>
@@ -750,6 +750,18 @@
   </si>
   <si>
     <t>https://www.w3.org/community/dpvcg/wiki/Workshop20201120</t>
+  </si>
+  <si>
+    <t>AdequacyDecision</t>
+  </si>
+  <si>
+    <t>Adequacy Decision</t>
+  </si>
+  <si>
+    <t>An adequacy decision as per GDPR Art.45(3) for the transfer of data to a third country or an international organisation</t>
+  </si>
+  <si>
+    <t>eu-gdpr:A45-3</t>
   </si>
   <si>
     <t>A13</t>
@@ -2045,6 +2057,21 @@
     <t>Authorities</t>
   </si>
   <si>
+    <t>DataProtectionAuthority</t>
+  </si>
+  <si>
+    <t>Data Protection Authority</t>
+  </si>
+  <si>
+    <t>A Supervisory Authority responsible for the enfocement of the GDPR</t>
+  </si>
+  <si>
+    <t>dpv:DataProtectionAuthority</t>
+  </si>
+  <si>
+    <t>GDPR Art.56, Guidelines 3/2018 on the territorial scope of the GDPR (Article 3) Version 2.1</t>
+  </si>
+  <si>
     <t>LeadSupervisoryAuthority</t>
   </si>
   <si>
@@ -2054,10 +2081,7 @@
     <t>Authority with the primary responsibility for dealing with a cross-border data processing activity</t>
   </si>
   <si>
-    <t>dpv:DataProtectionAuthority</t>
-  </si>
-  <si>
-    <t>GDPR Art.56, Guidelines 3/2018 on the territorial scope of the GDPR (Article 3) Version 2.1</t>
+    <t>eu-gdpr:DataProtectionAuthority</t>
   </si>
   <si>
     <t>ConcernedSupervisoryAuthority</t>
@@ -4350,7 +4374,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4384,17 +4408,17 @@
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="68" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="70"/>
@@ -4430,19 +4454,19 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D4" s="68" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>589</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>585</v>
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
@@ -4478,19 +4502,19 @@
     </row>
     <row r="5">
       <c r="A5" s="69" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D5" s="68" t="s">
+        <v>593</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>589</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>585</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
@@ -4526,19 +4550,19 @@
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>593</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>594</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>595</v>
-      </c>
-      <c r="D6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>589</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>585</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
@@ -4579,13 +4603,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4621,13 +4645,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -4793,7 +4817,7 @@
     </row>
     <row r="2">
       <c r="A2" s="79" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4827,26 +4851,26 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F3" s="63"/>
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="81" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K3" s="82">
         <v>45424.0</v>
@@ -4877,26 +4901,26 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C4" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>610</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>606</v>
-      </c>
       <c r="E4" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
       <c r="J4" s="81" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K4" s="82">
         <v>45424.0</v>
@@ -4927,26 +4951,26 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
       <c r="J5" s="81" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K5" s="82">
         <v>45424.0</v>
@@ -4977,26 +5001,26 @@
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
       <c r="J6" s="81" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K6" s="82">
         <v>45424.0</v>
@@ -5027,26 +5051,26 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="81" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K7" s="82">
         <v>45424.0</v>
@@ -5077,26 +5101,26 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="81" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K8" s="82">
         <v>45424.0</v>
@@ -5127,26 +5151,26 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="81" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K9" s="82">
         <v>45424.0</v>
@@ -5177,26 +5201,26 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="81" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K10" s="82">
         <v>45424.0</v>
@@ -5227,26 +5251,26 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E11" s="80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="81" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K11" s="82">
         <v>45424.0</v>
@@ -5397,7 +5421,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -5406,36 +5430,36 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K3" s="84">
-        <v>45336.0</v>
+        <v>45465.0</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O3" s="47"/>
       <c r="P3" s="11"/>
@@ -5456,26 +5480,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K4" s="84">
         <v>45336.0</v>
@@ -5485,7 +5509,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O4" s="47"/>
       <c r="P4" s="11"/>
@@ -5506,26 +5530,26 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K5" s="84">
         <v>45336.0</v>
@@ -5535,7 +5559,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="11"/>
@@ -5555,89 +5579,89 @@
       <c r="AD5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="8"/>
-      <c r="K6" s="13"/>
+      <c r="A6" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="K6" s="84">
+        <v>45336.0</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>426</v>
+      </c>
       <c r="O6" s="47"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>650</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="K7" s="13"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="K8" s="84">
-        <v>45336.0</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>422</v>
-      </c>
+      <c r="A8" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="K8" s="13"/>
       <c r="O8" s="47"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K9" s="84">
         <v>45336.0</v>
@@ -5647,9 +5671,9 @@
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="O9" s="11"/>
+        <v>426</v>
+      </c>
+      <c r="O9" s="47"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -5668,26 +5692,26 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K10" s="84">
         <v>45336.0</v>
@@ -5697,7 +5721,7 @@
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -5717,7 +5741,54 @@
       <c r="AD10" s="11"/>
     </row>
     <row r="11">
-      <c r="K11" s="13"/>
+      <c r="A11" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="K11" s="84">
+        <v>45336.0</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
     </row>
     <row r="12">
       <c r="K12" s="13"/>
@@ -5728,18 +5799,21 @@
     <row r="14">
       <c r="K14" s="13"/>
     </row>
+    <row r="15">
+      <c r="K15" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AD43">
+  <conditionalFormatting sqref="A2:AD44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AD43">
+  <conditionalFormatting sqref="A2:AD44">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AD43">
+  <conditionalFormatting sqref="A2:AD44">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
@@ -5782,13 +5856,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -5820,28 +5894,28 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K2" s="84">
         <v>45336.0</v>
@@ -5851,7 +5925,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -5870,28 +5944,28 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K3" s="84">
         <v>45336.0</v>
@@ -5901,7 +5975,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -5920,28 +5994,28 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K4" s="84">
         <v>45336.0</v>
@@ -5951,7 +6025,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -5970,28 +6044,28 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>677</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>668</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K5" s="84">
         <v>45336.0</v>
@@ -6001,7 +6075,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O5" s="47"/>
       <c r="P5" s="11"/>
@@ -6020,28 +6094,28 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K6" s="84">
         <v>45336.0</v>
@@ -6051,7 +6125,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -6070,28 +6144,28 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K7" s="84">
         <v>45336.0</v>
@@ -6101,7 +6175,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -9168,7 +9242,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -9200,10 +9274,10 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="47"/>
@@ -9212,61 +9286,61 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="K3" s="13"/>
       <c r="O3" s="47"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="K4" s="13"/>
       <c r="O4" s="47"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="K5" s="13"/>
       <c r="O5" s="47"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>688</v>
       </c>
       <c r="K6" s="13"/>
       <c r="O6" s="47"/>
@@ -9280,10 +9354,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C8" s="10"/>
       <c r="K8" s="13"/>
@@ -9291,57 +9365,57 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="K9" s="13"/>
       <c r="O9" s="47"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="K10" s="13"/>
       <c r="O10" s="47"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>688</v>
       </c>
       <c r="K11" s="13"/>
       <c r="O11" s="47"/>
@@ -9355,10 +9429,10 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C13" s="10"/>
       <c r="J13" s="10"/>
@@ -9366,152 +9440,152 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="K14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="K17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="81" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="63"/>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="87" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
@@ -9536,26 +9610,26 @@
     </row>
     <row r="21">
       <c r="A21" s="81" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="C21" s="86" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="88" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
@@ -9580,26 +9654,26 @@
     </row>
     <row r="22">
       <c r="A22" s="81" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="88" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
@@ -9624,42 +9698,42 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J23" s="88" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25">
@@ -9670,197 +9744,197 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>688</v>
-      </c>
       <c r="J27" s="10" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>688</v>
-      </c>
       <c r="J28" s="10" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>688</v>
-      </c>
       <c r="J29" s="10" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>688</v>
-      </c>
       <c r="J30" s="48" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="C35" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>774</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -11466,18 +11540,47 @@
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
     </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="13">
+        <v>45465.0</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E18 H2:AB18 A23:AB23">
+  <conditionalFormatting sqref="B2:E18 H2:I18 J2:J19 K2:AB18 A23:AB23">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E18 H2:AB18 A23:AB23">
+  <conditionalFormatting sqref="B2:E18 H2:I18 J2:J19 K2:AB18 A23:AB23">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O18 A23:O23">
+  <conditionalFormatting sqref="A2:I18 J2:J19 K2:O18 A23:O23">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
@@ -11553,26 +11656,26 @@
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K2" s="32">
         <v>44139.0</v>
@@ -11582,7 +11685,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>148</v>
@@ -11607,26 +11710,26 @@
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>246</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K3" s="32">
         <v>44139.0</v>
@@ -11636,7 +11739,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>148</v>
@@ -11661,26 +11764,26 @@
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="31" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K4" s="32">
         <v>44139.0</v>
@@ -11690,7 +11793,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O4" s="28" t="s">
         <v>148</v>
@@ -11715,26 +11818,26 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K5" s="32">
         <v>44139.0</v>
@@ -11744,7 +11847,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>148</v>
@@ -11769,26 +11872,26 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K6" s="32">
         <v>44139.0</v>
@@ -11798,7 +11901,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>148</v>
@@ -11823,26 +11926,26 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="31" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K7" s="32">
         <v>44139.0</v>
@@ -11852,7 +11955,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>148</v>
@@ -11877,26 +11980,26 @@
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="31" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K8" s="32">
         <v>44139.0</v>
@@ -11908,7 +12011,7 @@
         <v>22</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O8" s="28" t="s">
         <v>148</v>
@@ -11933,26 +12036,26 @@
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="31" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K9" s="32">
         <v>44139.0</v>
@@ -11962,7 +12065,7 @@
         <v>22</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O9" s="28" t="s">
         <v>148</v>
@@ -11987,26 +12090,26 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K10" s="32">
         <v>44139.0</v>
@@ -12016,7 +12119,7 @@
         <v>22</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>148</v>
@@ -12041,26 +12144,26 @@
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K11" s="32">
         <v>44139.0</v>
@@ -12070,7 +12173,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>148</v>
@@ -12095,26 +12198,26 @@
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K12" s="32">
         <v>44139.0</v>
@@ -12124,7 +12227,7 @@
         <v>22</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>148</v>
@@ -12149,26 +12252,26 @@
     </row>
     <row r="13">
       <c r="A13" s="28" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="31" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K13" s="32">
         <v>44139.0</v>
@@ -12178,7 +12281,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>148</v>
@@ -12206,25 +12309,25 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C15" s="36"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -12239,7 +12342,7 @@
         <v>22</v>
       </c>
       <c r="N16" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -12262,19 +12365,19 @@
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>297</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -12289,7 +12392,7 @@
         <v>22</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -12312,19 +12415,19 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -12339,7 +12442,7 @@
         <v>22</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -12362,64 +12465,64 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K19" s="40">
         <v>44874.0</v>
       </c>
       <c r="N19" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K20" s="40">
         <v>44874.0</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K21" s="40">
         <v>44874.0</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -12434,7 +12537,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -12457,13 +12560,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -12480,7 +12583,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -12503,44 +12606,44 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K24" s="40">
         <v>44874.0</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28">
@@ -15514,37 +15617,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>12</v>
@@ -15557,37 +15660,37 @@
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>22</v>
@@ -15613,37 +15716,37 @@
         <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>22</v>
@@ -15669,37 +15772,37 @@
         <v>31</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>22</v>
@@ -15725,37 +15828,37 @@
         <v>36</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>22</v>
@@ -15781,37 +15884,37 @@
         <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>22</v>
@@ -15837,37 +15940,37 @@
         <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>22</v>
@@ -15893,37 +15996,37 @@
         <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>22</v>
@@ -15949,37 +16052,37 @@
         <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>22</v>
@@ -16005,37 +16108,37 @@
         <v>62</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>22</v>
@@ -16058,40 +16161,40 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>22</v>
@@ -16117,37 +16220,37 @@
         <v>70</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>22</v>
@@ -16173,37 +16276,37 @@
         <v>75</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>22</v>
@@ -16229,37 +16332,37 @@
         <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>22</v>
@@ -16285,37 +16388,37 @@
         <v>83</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>22</v>
@@ -16341,37 +16444,37 @@
         <v>88</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>22</v>
@@ -16397,37 +16500,37 @@
         <v>92</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>22</v>
@@ -16533,26 +16636,26 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="43" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K2" s="13">
         <v>44461.0</v>
@@ -16565,7 +16668,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -16583,26 +16686,26 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="44" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K3" s="13">
         <v>44461.0</v>
@@ -16612,10 +16715,10 @@
         <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -16633,26 +16736,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>335</v>
-      </c>
       <c r="E4" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="43" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K4" s="13">
         <v>44461.0</v>
@@ -16665,7 +16768,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -16683,26 +16786,26 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="43" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K5" s="13">
         <v>44461.0</v>
@@ -16715,7 +16818,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -16733,24 +16836,24 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="43" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K6" s="13">
         <v>44461.0</v>
@@ -16762,10 +16865,10 @@
         <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -16783,19 +16886,19 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -16812,10 +16915,10 @@
         <v>22</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -16833,19 +16936,19 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -16862,10 +16965,10 @@
         <v>22</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -16883,26 +16986,26 @@
     </row>
     <row r="9">
       <c r="A9" s="45" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="46" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K9" s="13">
         <v>44461.0</v>
@@ -16912,10 +17015,10 @@
         <v>22</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -16933,26 +17036,26 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="43" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K10" s="13">
         <v>44461.0</v>
@@ -16962,10 +17065,10 @@
         <v>22</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -17086,19 +17189,19 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -17134,19 +17237,19 @@
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -17182,19 +17285,19 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>371</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -17242,19 +17345,19 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -17290,17 +17393,17 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="10" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -17336,17 +17439,17 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -17394,19 +17497,19 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -17442,17 +17545,17 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -17488,17 +17591,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -17534,17 +17637,17 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -17591,19 +17694,19 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -17639,17 +17742,17 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -17685,17 +17788,17 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -17731,17 +17834,17 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="38" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -17775,17 +17878,17 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -17831,19 +17934,19 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -17858,7 +17961,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -17877,17 +17980,17 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -17902,7 +18005,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -17921,17 +18024,17 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -17946,7 +18049,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -17975,19 +18078,19 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -18002,7 +18105,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -18021,17 +18124,17 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -18046,7 +18149,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -18065,17 +18168,17 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -18090,7 +18193,7 @@
         <v>22</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -18177,13 +18280,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -18215,13 +18318,13 @@
     </row>
     <row r="2">
       <c r="A2" s="50" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="50"/>
@@ -18253,13 +18356,13 @@
     </row>
     <row r="3">
       <c r="A3" s="50" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="50"/>
@@ -18291,13 +18394,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -18329,13 +18432,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -18367,13 +18470,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -18405,13 +18508,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -18443,13 +18546,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -18481,13 +18584,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -18519,13 +18622,13 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="30"/>
@@ -18557,13 +18660,13 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -18595,13 +18698,13 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -18633,13 +18736,13 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -18671,13 +18774,13 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -18709,13 +18812,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -18747,13 +18850,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -18785,13 +18888,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -21834,28 +21937,28 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="55" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="K2" s="57">
         <v>45431.0</v>
@@ -21884,26 +21987,26 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K3" s="13">
         <v>45431.0</v>
@@ -21932,26 +22035,26 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>485</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K4" s="13">
         <v>45431.0</v>
@@ -21980,26 +22083,26 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K5" s="13">
         <v>45431.0</v>
@@ -22028,26 +22131,26 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K6" s="13">
         <v>45431.0</v>
@@ -22088,26 +22191,26 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K8" s="13">
         <v>45431.0</v>
@@ -22140,24 +22243,24 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K9" s="13">
         <v>45431.0</v>
@@ -22190,24 +22293,24 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K10" s="13">
         <v>45431.0</v>
@@ -22240,24 +22343,24 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K11" s="13">
         <v>45431.0</v>
@@ -22301,26 +22404,26 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K13" s="13">
         <v>45431.0</v>
@@ -22353,24 +22456,24 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K14" s="13">
         <v>45431.0</v>
@@ -22403,24 +22506,24 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="47" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K15" s="13">
         <v>45431.0</v>
@@ -22449,24 +22552,24 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K16" s="13">
         <v>45431.0</v>
@@ -22495,24 +22598,24 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K17" s="13">
         <v>45431.0</v>
@@ -22541,24 +22644,24 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K18" s="13">
         <v>45431.0</v>
@@ -22590,26 +22693,26 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K20" s="13">
         <v>45431.0</v>
@@ -22638,24 +22741,24 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K21" s="13">
         <v>45431.0</v>
@@ -22684,26 +22787,26 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K22" s="13">
         <v>45431.0</v>
@@ -22732,26 +22835,26 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K23" s="13">
         <v>45431.0</v>
@@ -22780,26 +22883,26 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K24" s="13">
         <v>45431.0</v>
@@ -22828,24 +22931,24 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="47" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K25" s="13">
         <v>45431.0</v>
@@ -22874,24 +22977,24 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K26" s="13">
         <v>45431.0</v>
@@ -22920,24 +23023,24 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K27" s="13">
         <v>45431.0</v>
@@ -22966,26 +23069,26 @@
     </row>
     <row r="29">
       <c r="A29" s="59" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K29" s="13">
         <v>45431.0</v>
@@ -23014,26 +23117,26 @@
     </row>
     <row r="30">
       <c r="A30" s="56" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K30" s="13">
         <v>45431.0</v>
@@ -23062,26 +23165,26 @@
     </row>
     <row r="31">
       <c r="A31" s="56" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K31" s="13">
         <v>45431.0</v>
@@ -23110,26 +23213,26 @@
     </row>
     <row r="32">
       <c r="A32" s="56" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K32" s="13">
         <v>45431.0</v>
@@ -23158,26 +23261,26 @@
     </row>
     <row r="33">
       <c r="A33" s="56" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="47" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K33" s="13">
         <v>45431.0</v>
@@ -23206,26 +23309,26 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="K35" s="13">
         <v>45431.0</v>
